--- a/Projects/GMIUS/Data/Yogurt GMI KPI Template v0.3.xlsx
+++ b/Projects/GMIUS/Data/Yogurt GMI KPI Template v0.3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -41,6 +41,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
@@ -54,6 +56,8 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -394,7 +398,7 @@
     <t xml:space="preserve">brand_name</t>
   </si>
   <si>
-    <t xml:space="preserve">count</t>
+    <t xml:space="preserve">count of</t>
   </si>
   <si>
     <t xml:space="preserve">A/AF</t>
@@ -433,6 +437,9 @@
     <t xml:space="preserve">KITE HILL</t>
   </si>
   <si>
+    <t xml:space="preserve">adj_kh</t>
+  </si>
+  <si>
     <t xml:space="preserve">Criteria 1 Type</t>
   </si>
   <si>
@@ -602,9 +609,6 @@
   </si>
   <si>
     <t xml:space="preserve">Noosa, YQ, Chobani Hint, Siggi's, Brown Cow, Greek Gods, Yoplait Traditional, Fage, Chobani Greek, Organic, Non Dairy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adj_kh</t>
   </si>
   <si>
     <t xml:space="preserve">Silk, So Delicious, Greek, Simply Better, Organic, Non Dairy</t>
@@ -878,19 +882,19 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="90.5481481481482"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.462962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7185185185185"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.40740740740741"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.8666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="95.1518518518519"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3074074074074"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.337037037037"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1711,19 +1715,19 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.1259259259259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7777777777778"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1481481481481"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7777777777778"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.0111111111111"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8962962962963"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.25185185185185"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4962962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.5592592592593"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9333333333333"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.5592592592593"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8925925925926"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.44814814814815"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1731,16 +1735,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>106</v>
@@ -1754,22 +1758,22 @@
         <v>55</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>152</v>
-      </c>
       <c r="E2" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1790,31 +1794,31 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2888888888889"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="167.177777777778"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.81851851851852"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.07407407407407"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0703703703704"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="175.9"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.27037037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1822,10 +1826,10 @@
         <v>109</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>12</v>
@@ -1836,10 +1840,10 @@
         <v>114</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>12</v>
@@ -1847,13 +1851,13 @@
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>164</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>12</v>
@@ -1861,13 +1865,13 @@
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>12</v>
@@ -1878,10 +1882,10 @@
         <v>82</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>12</v>
@@ -1892,10 +1896,10 @@
         <v>85</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>12</v>
@@ -1906,10 +1910,10 @@
         <v>98</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>12</v>
@@ -1920,10 +1924,10 @@
         <v>103</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>12</v>
@@ -1934,10 +1938,10 @@
         <v>101</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>12</v>
@@ -1948,10 +1952,10 @@
         <v>68</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>12</v>
@@ -1962,10 +1966,10 @@
         <v>71</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>12</v>
@@ -1973,13 +1977,13 @@
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>12</v>
@@ -1990,10 +1994,10 @@
         <v>118</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>12</v>
@@ -2004,10 +2008,10 @@
         <v>120</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>12</v>
@@ -2015,13 +2019,13 @@
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>180</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>12</v>
@@ -2051,7 +2055,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2165,11 +2169,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.8444444444444"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2888888888889"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.4777777777778"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2888888888889"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.6111111111111"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0703703703704"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7518518518519"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0703703703704"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2224,14 +2228,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.4185185185185"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2888888888889"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.4777777777778"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.562962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.4037037037037"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.5185185185185"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.562962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.7888888888889"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0703703703704"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7518518518519"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1518518518519"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.9925925925926"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.6962962962963"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1518518518519"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2304,12 +2308,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.237037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8962962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4037037037037"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.6"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.737037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.2925925925926"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3814814814815"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2888888888889"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2388,10 +2392,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="90.5481481481482"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8962962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.7888888888889"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="95.1518518518519"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3592592592593"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2699,13 +2703,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="73.5925925925926"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4592592592593"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.7888888888889"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.8"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.6"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.4814814814815"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="77.4148148148148"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.537037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3592592592593"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.9962962962963"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2888888888889"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.4222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2898,21 +2902,21 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="79.6703703703704"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4592592592593"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.7888888888889"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8962962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8962962962963"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.262962962963"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.25185185185185"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="83.7851851851852"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.537037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3592592592593"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.3444444444444"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.44814814814815"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2958,7 +2962,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>42</v>
       </c>
@@ -2975,7 +2979,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>43</v>
       </c>
@@ -2992,7 +2996,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>44</v>
       </c>
@@ -3009,7 +3013,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>45</v>
       </c>
@@ -3026,7 +3030,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>46</v>
       </c>
@@ -3043,7 +3047,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>47</v>
       </c>
@@ -3060,7 +3064,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>48</v>
       </c>
@@ -3077,7 +3081,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>49</v>
       </c>
@@ -3094,7 +3098,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>50</v>
       </c>
@@ -3117,7 +3121,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>51</v>
       </c>
@@ -3140,7 +3144,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>52</v>
       </c>
@@ -3157,7 +3161,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>53</v>
       </c>
@@ -3212,19 +3216,19 @@
   </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.6592592592593"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3888888888889"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2888888888889"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.4777777777778"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="63.7925925925926"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0703703703704"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.7518518518519"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3340,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3367,32 +3371,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.2888888888889"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9148148148148"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8555555555556"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1703703703704"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2296296296296"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9148148148148"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.8555555555556"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.4037037037037"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.2296296296296"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.9148148148148"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.8555555555556"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.2296296296296"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.9148148148148"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.8555555555556"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.40740740740741"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.2296296296296"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.9148148148148"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.8555555555556"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.1703703703704"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.2296296296296"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="13.9148148148148"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="16.8555555555556"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="16.1703703703704"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="13.2296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.1296296296296"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5037037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.9518518518519"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5037037037037"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.3814814814815"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.5037037037037"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.5037037037037"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.5037037037037"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.9518518518519"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.5037037037037"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="16.9518518518519"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3400,76 +3404,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Z1" s="0" t="s">
         <v>65</v>
@@ -3498,7 +3502,7 @@
         <v>91</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>12</v>
@@ -3516,7 +3520,7 @@
         <v>12</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>111</v>
@@ -3528,7 +3532,7 @@
         <v>12</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S2" s="0" t="s">
         <v>111</v>

--- a/Projects/GMIUS/Data/Yogurt GMI KPI Template v0.3.xlsx
+++ b/Projects/GMIUS/Data/Yogurt GMI KPI Template v0.3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -43,6 +43,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
@@ -58,6 +59,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -69,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="191">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -335,24 +337,27 @@
     <t xml:space="preserve">was FAMILY FAVORITES SEGMENT</t>
   </si>
   <si>
+    <t xml:space="preserve">Package General Shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTTLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS SIMPLY BETTER X SF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMI_AUDIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS ADULT ORG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS ADULT SNACKING FORMS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Segment</t>
   </si>
   <si>
-    <t xml:space="preserve">BEVERAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTL VS SIMPLY BETTER X SF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMI_AUDIENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTL VS ADULT ORG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTL VS ADULT SNACKING FORMS</t>
-  </si>
-  <si>
     <t xml:space="preserve">ASH</t>
   </si>
   <si>
@@ -368,18 +373,12 @@
     <t xml:space="preserve">blocking</t>
   </si>
   <si>
-    <t xml:space="preserve">Package General Shape</t>
-  </si>
-  <si>
     <t xml:space="preserve">TUB</t>
   </si>
   <si>
     <t xml:space="preserve">blocking tub</t>
   </si>
   <si>
-    <t xml:space="preserve">BOTTLE</t>
-  </si>
-  <si>
     <t xml:space="preserve">blocking yogurt</t>
   </si>
   <si>
@@ -407,6 +406,9 @@
     <t xml:space="preserve">Natural/ Organic</t>
   </si>
   <si>
+    <t xml:space="preserve">TTL VS KID ORG X ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">form_factor</t>
   </si>
   <si>
@@ -510,9 +512,6 @@
   </si>
   <si>
     <t xml:space="preserve">Criteria 6 MSL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTL VS KID ORG X ND</t>
   </si>
   <si>
     <t xml:space="preserve">Distribution</t>
@@ -888,13 +887,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="95.1518518518519"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3074074074074"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.8"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.337037037037"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.8185185185185"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="97.5037037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.6"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.1222222222222"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.9962962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1720,14 +1719,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4962962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.5592592592593"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.5592592592593"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8925925925926"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.44814814814815"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1814814814815"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9518518518519"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3259259259259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.9518518518519"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.3814814814815"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.0703703703704"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.54444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.9962962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1735,19 +1734,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>152</v>
-      </c>
       <c r="F1" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>65</v>
@@ -1758,22 +1757,22 @@
         <v>55</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1800,36 +1799,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0703703703704"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="175.9"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.21111111111111"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.27037037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.462962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="180.407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.37037037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.9962962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>160</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>162</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>12</v>
@@ -1840,10 +1839,10 @@
         <v>114</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>164</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>165</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>12</v>
@@ -1851,13 +1850,13 @@
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>12</v>
@@ -1865,13 +1864,13 @@
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>168</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>12</v>
@@ -1882,10 +1881,10 @@
         <v>82</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>12</v>
@@ -1896,10 +1895,10 @@
         <v>85</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>12</v>
@@ -1907,13 +1906,13 @@
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>12</v>
@@ -1921,13 +1920,13 @@
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>12</v>
@@ -1938,10 +1937,10 @@
         <v>101</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>12</v>
@@ -1952,10 +1951,10 @@
         <v>68</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>12</v>
@@ -1966,10 +1965,10 @@
         <v>71</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>12</v>
@@ -1977,13 +1976,13 @@
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>177</v>
-      </c>
       <c r="C13" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>12</v>
@@ -1994,10 +1993,10 @@
         <v>118</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>12</v>
@@ -2008,10 +2007,10 @@
         <v>120</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>12</v>
@@ -2022,10 +2021,10 @@
         <v>122</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>12</v>
@@ -2055,7 +2054,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.9962962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2063,28 +2062,28 @@
         <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -2094,7 +2093,7 @@
     </row>
     <row r="3" customFormat="false" ht="66" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -2108,7 +2107,7 @@
     </row>
     <row r="4" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2121,7 +2120,7 @@
     </row>
     <row r="5" customFormat="false" ht="55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2135,7 +2134,7 @@
     </row>
     <row r="6" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2169,11 +2168,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.6111111111111"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0703703703704"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7518518518519"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.5888888888889"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.462962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.3407407407407"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.462962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.9962962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2228,14 +2227,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.7888888888889"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0703703703704"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7518518518519"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1518518518519"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.9925925925926"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.6962962962963"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1518518518519"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.5740740740741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.462962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.3407407407407"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3481481481481"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3851851851852"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.2814814814815"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.3481481481481"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.9962962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2308,12 +2307,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.2925925925926"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3814814814815"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2888888888889"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5222222222222"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.3703703703704"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0703703703704"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.8740740740741"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9111111111111"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.9962962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2386,16 +2385,16 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="95.1518518518519"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3592592592593"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="97.5037037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0703703703704"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1407407407407"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.9962962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2493,11 +2492,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="0" t="s">
         <v>88</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -2613,10 +2612,10 @@
         <v>35</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>12</v>
@@ -2636,10 +2635,10 @@
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>12</v>
@@ -2654,7 +2653,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>37</v>
       </c>
@@ -2662,7 +2661,7 @@
         <v>78</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>12</v>
@@ -2695,21 +2694,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="77.4148148148148"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.537037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3592592592593"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.9962962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2888888888889"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.4222222222222"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="79.3740740740741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1407407407407"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.0962962962963"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.9888888888889"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.9962962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2743,7 +2742,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2760,130 +2759,114 @@
         <v>12</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="0" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="0" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2900,23 +2883,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="83.7851851851852"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.537037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3592592592593"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4222222222222"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.3444444444444"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.44814814814815"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="85.9407407407407"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1407407407407"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0703703703704"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.0703703703704"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.8333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.54444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.9962962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2936,10 +2919,10 @@
         <v>75</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>107</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>65</v>
@@ -2956,10 +2939,10 @@
         <v>84</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2973,10 +2956,10 @@
         <v>90</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2990,10 +2973,10 @@
         <v>93</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3007,10 +2990,10 @@
         <v>79</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3024,86 +3007,92 @@
         <v>86</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>88</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="F8" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="F9" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>110</v>
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>92</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>12</v>
@@ -3112,89 +3101,66 @@
         <v>91</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="F11" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="F12" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F13" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>78</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>113</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="H15" s="0" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3216,19 +3182,19 @@
   </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="63.7925925925926"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.7777777777778"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0703703703704"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.7518518518519"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.362962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.462962962963"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.3407407407407"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.9962962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3277,7 +3243,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>81</v>
@@ -3306,7 +3272,7 @@
         <v>67</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>81</v>
@@ -3335,7 +3301,7 @@
         <v>67</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>81</v>
@@ -3366,37 +3332,37 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.1296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5037037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.9518518518519"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.8185185185185"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5037037037037"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.3814814814815"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.8185185185185"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.5037037037037"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.4222222222222"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.8185185185185"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.5037037037037"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.8"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.8185185185185"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.5037037037037"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.9518518518519"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.8185185185185"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.5037037037037"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="16.9518518518519"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="13.8185185185185"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="58.5037037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7962962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.7962962962963"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.8740740740741"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.7962962962963"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.7962962962963"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.7962962962963"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.7962962962963"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.9962962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3487,7 +3453,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>12</v>
@@ -3502,7 +3468,7 @@
         <v>91</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>12</v>
@@ -3520,10 +3486,10 @@
         <v>12</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>12</v>
@@ -3532,10 +3498,10 @@
         <v>12</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>12</v>
@@ -3544,7 +3510,7 @@
         <v>16</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>12</v>

--- a/Projects/GMIUS/Data/Yogurt GMI KPI Template v0.3.xlsx
+++ b/Projects/GMIUS/Data/Yogurt GMI KPI Template v0.3.xlsx
@@ -23,27 +23,27 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="a" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="d" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="f" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="s" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$43</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="a" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="d" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="f" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="s" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="187">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -127,9 +127,6 @@
     <t xml:space="preserve">When blocked, how is the Kid Yogurt segment Blocked?</t>
   </si>
   <si>
-    <t xml:space="preserve">When blocked, how is the Adult Specialized Health Yogurt segment Blocked?</t>
-  </si>
-  <si>
     <t xml:space="preserve">What best describes the stocking location of Beverage Yogurt?</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t xml:space="preserve">In the MSL for Yogurt, which of the following is adjacent to the Snacking Segment?</t>
   </si>
   <si>
-    <t xml:space="preserve">In the MSL for Yogurt, which of the following is adjacent to the ASH Segment?</t>
-  </si>
-  <si>
     <t xml:space="preserve">In the MSL for Yogurt, which of the following is adjacent to Large Size?</t>
   </si>
   <si>
@@ -211,9 +205,6 @@
     <t xml:space="preserve">How many Family Favorite brand lines are carried in the MSL Location for Yogurt?</t>
   </si>
   <si>
-    <t xml:space="preserve">How many ASH brand lines are carried in the MSL Location for Yogurt?</t>
-  </si>
-  <si>
     <t xml:space="preserve">How many Beverage brand lines are carried in the MSL Location for Yogurt?</t>
   </si>
   <si>
@@ -355,49 +346,46 @@
     <t xml:space="preserve">TTL VS ADULT SNACKING FORMS</t>
   </si>
   <si>
+    <t xml:space="preserve">GMI_SIZE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL LRG SZ YOG/BEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS NON-DAIRY YOG/BEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blocking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blocking tub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blocking yogurt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blocking presence yogurt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*How would KPI output describe a stocking location for a product?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count_attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count of</t>
+  </si>
+  <si>
     <t xml:space="preserve">Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMI_SIZE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTL LRG SZ YOG/BEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTL VS NON-DAIRY YOG/BEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blocking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blocking tub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blocking yogurt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blocking presence yogurt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*How would KPI output describe a stocking location for a product?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count_attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brand_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count of</t>
   </si>
   <si>
     <t xml:space="preserve">A/AF</t>
@@ -879,13 +867,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="97.5037037037037"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6407407407407"/>
@@ -1096,9 +1084,11 @@
       <c r="A12" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>16</v>
-      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="0" t="s">
         <v>10</v>
       </c>
@@ -1108,13 +1098,16 @@
       <c r="G12" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H12" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1128,7 +1121,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1136,7 +1129,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1150,7 +1143,7 @@
         <v>12</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1158,7 +1151,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1172,7 +1165,7 @@
         <v>12</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1180,7 +1173,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1194,7 +1187,7 @@
         <v>12</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1202,7 +1195,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1216,7 +1209,7 @@
         <v>12</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1224,7 +1217,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1238,7 +1231,7 @@
         <v>12</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1246,7 +1239,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1260,7 +1253,7 @@
         <v>12</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1268,7 +1261,7 @@
         <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1282,7 +1275,7 @@
         <v>12</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,7 +1283,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1304,18 +1297,16 @@
         <v>12</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="B22" s="0" t="s">
+        <v>37</v>
+      </c>
       <c r="E22" s="0" t="s">
         <v>10</v>
       </c>
@@ -1324,20 +1315,15 @@
       </c>
       <c r="G22" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>39</v>
+      </c>
       <c r="E23" s="0" t="s">
         <v>10</v>
       </c>
@@ -1346,14 +1332,11 @@
       </c>
       <c r="G23" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>39</v>
@@ -1370,10 +1353,10 @@
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>10</v>
@@ -1390,7 +1373,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>10</v>
@@ -1407,7 +1390,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>10</v>
@@ -1424,7 +1407,7 @@
         <v>44</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>10</v>
@@ -1441,7 +1424,7 @@
         <v>45</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>10</v>
@@ -1458,7 +1441,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>10</v>
@@ -1475,7 +1458,7 @@
         <v>47</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>10</v>
@@ -1492,7 +1475,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>10</v>
@@ -1509,7 +1492,7 @@
         <v>49</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>10</v>
@@ -1526,7 +1509,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>10</v>
@@ -1543,7 +1526,7 @@
         <v>51</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>10</v>
@@ -1560,7 +1543,7 @@
         <v>52</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>10</v>
@@ -1574,10 +1557,10 @@
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>10</v>
@@ -1591,10 +1574,10 @@
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>10</v>
@@ -1608,11 +1591,11 @@
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="E39" s="0" t="s">
         <v>10</v>
       </c>
@@ -1623,13 +1606,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="0" t="s">
+    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="B40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
       <c r="E40" s="0" t="s">
         <v>10</v>
       </c>
@@ -1640,61 +1625,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F43"/>
+  <autoFilter ref="A1:F40"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1734,45 +1666,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>152</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1808,27 +1740,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>12</v>
@@ -1836,13 +1768,13 @@
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>12</v>
@@ -1850,13 +1782,13 @@
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>12</v>
@@ -1864,13 +1796,13 @@
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>12</v>
@@ -1878,13 +1810,13 @@
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>12</v>
@@ -1892,13 +1824,13 @@
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>12</v>
@@ -1906,13 +1838,13 @@
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>12</v>
@@ -1920,13 +1852,13 @@
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>12</v>
@@ -1934,13 +1866,13 @@
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>12</v>
@@ -1948,13 +1880,13 @@
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>12</v>
@@ -1962,13 +1894,13 @@
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>12</v>
@@ -1976,13 +1908,13 @@
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>12</v>
@@ -1990,13 +1922,13 @@
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>12</v>
@@ -2004,13 +1936,13 @@
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>12</v>
@@ -2018,13 +1950,13 @@
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>12</v>
@@ -2059,31 +1991,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -2093,7 +2025,7 @@
     </row>
     <row r="3" customFormat="false" ht="66" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -2107,7 +2039,7 @@
     </row>
     <row r="4" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2120,7 +2052,7 @@
     </row>
     <row r="5" customFormat="false" ht="55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2134,7 +2066,7 @@
     </row>
     <row r="6" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2180,13 +2112,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2194,13 +2126,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2242,22 +2174,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2265,22 +2197,22 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2320,51 +2252,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2383,10 +2315,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -2402,280 +2334,258 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>81</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>81</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>81</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>81</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>81</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>81</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>94</v>
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>35</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>75</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2716,16 +2626,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2733,16 +2643,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2750,120 +2660,120 @@
         <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="0" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2907,261 +2817,261 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3202,115 +3112,115 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3370,90 +3280,90 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="X1" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="Y1" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="V1" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>146</v>
-      </c>
       <c r="Z1" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>12</v>
@@ -3465,10 +3375,10 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>12</v>
@@ -3477,19 +3387,19 @@
         <v>16</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>12</v>
@@ -3498,10 +3408,10 @@
         <v>12</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>12</v>
@@ -3510,7 +3420,7 @@
         <v>16</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>12</v>

--- a/Projects/GMIUS/Data/Yogurt GMI KPI Template v0.3.xlsx
+++ b/Projects/GMIUS/Data/Yogurt GMI KPI Template v0.3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,6 +44,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
@@ -60,6 +62,8 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -71,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="187">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -550,7 +554,7 @@
     <t xml:space="preserve">, </t>
   </si>
   <si>
-    <t xml:space="preserve">Only 1 format (Tube, Cup, Pouch, OR Drink); 2 formats (Tube, Cup, Pouch, AND/OR Drink); 3 formats (Tube, Cup, Pouch, AND/OR Drink); 4 formats (Tube, Cup, Pouch, AND Drink)</t>
+    <t xml:space="preserve">Only 1 format(s) (Tube, Cup, Pouch, Drink); 2 format(s) (Tube, Cup, Pouch, Drink); 3 format(s) (Tube, Cup, Pouch, Drink); 4 format(s) (Tube, Cup, Pouch, Drink)</t>
   </si>
   <si>
     <t xml:space="preserve">; </t>
@@ -589,7 +593,7 @@
     <t xml:space="preserve">stocking</t>
   </si>
   <si>
-    <t xml:space="preserve">All Organic Blocked within Mainstream Yogurt Set, Adult Organic and Kid Organic Blocked, but in Separate Locations, Interspersed within Mainstream Yogurt Set, Blocked; Separate Location in Separate Aisle, No Distribution</t>
+    <t xml:space="preserve">All Organic Blocked within Mainstream Yogurt Set; Adult Organic and Kid Organic Blocked Separately; Interspersed within Mainstream Yogurt Set; Blocked, Separate Location in Separate Aisle; No Distribution</t>
   </si>
   <si>
     <t xml:space="preserve">Noosa, Oui, Chobani Hint, Siggi's, Brown Cow, Greek Gods, Yoplait Traditional, Fage, Chobani Greek, Organic, Non Dairy</t>
@@ -622,13 +626,13 @@
     <t xml:space="preserve">All Organic Blocked within Mainstream Yogurt Set</t>
   </si>
   <si>
-    <t xml:space="preserve">Adult Organic and Kid Organic Blocked, but in Separate Locations </t>
+    <t xml:space="preserve">Adult Organic and Kid Organic Blocked Separately</t>
   </si>
   <si>
     <t xml:space="preserve">Interspersed within Mainstream Yogurt Set</t>
   </si>
   <si>
-    <t xml:space="preserve">Blocked; Separate Location in Separate Aisle</t>
+    <t xml:space="preserve">Blocked, Separate Location in Separate Aisle</t>
   </si>
   <si>
     <t xml:space="preserve">No Distribution</t>
@@ -869,19 +873,19 @@
   </sheetPr>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="97.5037037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.6"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.9962962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.1222222222222"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="102.6"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2888888888889"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.6888888888889"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.7"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.3888888888889"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1615,9 +1619,6 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="F40" s="0" t="s">
         <v>11</v>
       </c>
@@ -1651,14 +1652,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1814814814815"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9518518518519"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3259259259259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.9518518518519"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.3814814814815"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.0703703703704"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.54444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7518518518519"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1074074074074"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.362962962963"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.8555555555556"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.74074074074074"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.3888888888889"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1725,17 +1726,17 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.462962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="180.407407407407"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.40740740740741"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.37037037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="189.714814814815"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.76296296296296"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.3888888888889"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1914,7 +1915,7 @@
         <v>172</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>12</v>
@@ -1981,12 +1982,12 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3888888888889"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2013,7 +2014,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>182</v>
       </c>
@@ -2023,7 +2024,7 @@
       <c r="F2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="66" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>183</v>
       </c>
@@ -2037,7 +2038,7 @@
       <c r="F3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>184</v>
       </c>
@@ -2050,7 +2051,7 @@
       <c r="F4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>185</v>
       </c>
@@ -2100,11 +2101,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.5888888888889"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.462962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.3407407407407"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.462962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.6481481481481"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.6148148148148"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.3888888888889"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2159,14 +2160,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.5740740740741"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.462962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.3407407407407"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3481481481481"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3851851851852"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.2814814814815"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.3481481481481"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1407407407407"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.6148148148148"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.7407407407407"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1703703703704"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.5555555555556"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.7407407407407"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.3888888888889"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2239,12 +2240,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.3703703703704"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0703703703704"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.8740740740741"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9111111111111"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.6259259259259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8555555555556"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.9518518518519"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.462962962963"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7962962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.3888888888889"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2317,16 +2318,16 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="97.5037037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0703703703704"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1407407407407"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="102.6"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8555555555556"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.7111111111111"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.3888888888889"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2607,18 +2608,18 @@
   <dimension ref="A1:F65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="79.3740740740741"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1407407407407"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.0962962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.9888888888889"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="83.4925925925926"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1074074074074"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.7111111111111"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.29259259259259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.462962962963"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="67.3222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.3888888888889"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2796,20 +2797,20 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="85.9407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1407407407407"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0703703703704"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.0703703703704"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.8333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.54444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="90.3518518518519"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1074074074074"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.7111111111111"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8555555555556"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.8555555555556"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.8111111111111"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.74074074074074"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.3888888888889"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3098,13 +3099,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.362962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0740740740741"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.462962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.3407407407407"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="68.6925925925926"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.662962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.4259259259259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.6148148148148"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.4259259259259"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.3888888888889"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3241,38 +3242,38 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="58.5037037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7962962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.7962962962963"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.8740740740741"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.7962962962963"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.7962962962963"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.9962962962963"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.7962962962963"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.7962962962963"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.5407407407407"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4814814814815"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.7"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.4814814814815"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.9518518518519"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.7"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.4814814814815"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.7"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.4814814814815"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.7"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.4814814814815"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.7"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.4814814814815"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="14.7"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="10.3888888888889"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/GMIUS/Data/Yogurt GMI KPI Template v0.3.xlsx
+++ b/Projects/GMIUS/Data/Yogurt GMI KPI Template v0.3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,6 +20,7 @@
     <sheet name="Variety Count" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Result" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="Yogurt Location Map" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Anchor Map" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
@@ -46,6 +47,11 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$F$40</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
@@ -64,6 +70,11 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Anchor List'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -75,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="207">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -389,10 +400,10 @@
     <t xml:space="preserve">count of</t>
   </si>
   <si>
-    <t xml:space="preserve">Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A/AF</t>
+    <t xml:space="preserve">GMI_SUBCATEGORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL A/AF BEV X GRK</t>
   </si>
   <si>
     <t xml:space="preserve">Natural/ Organic</t>
@@ -413,22 +424,25 @@
     <t xml:space="preserve">Result Type</t>
   </si>
   <si>
-    <t xml:space="preserve">sub_brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YOPLAIT YQ</t>
+    <t xml:space="preserve">GMI_BRAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL YP TRD YQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left, right, top, bottom</t>
   </si>
   <si>
     <t xml:space="preserve">adj_yo</t>
   </si>
   <si>
-    <t xml:space="preserve">YOPLAIT OUI</t>
+    <t xml:space="preserve">TTL YP TRD OUI</t>
   </si>
   <si>
     <t xml:space="preserve">adj_oui</t>
   </si>
   <si>
-    <t xml:space="preserve">KITE HILL</t>
+    <t xml:space="preserve">BTL KITE HILL</t>
   </si>
   <si>
     <t xml:space="preserve">adj_kh</t>
@@ -569,10 +583,10 @@
     <t xml:space="preserve">Noosa, Chobani Greek, Chobani Hint, Siggi's, Brown Cow, Greek Gods, Yoplait Traditional, Fage, Other Simply Better, Organic, Non Dairy</t>
   </si>
   <si>
-    <t xml:space="preserve">YES both Kid and ASH anchor, Only Kid Anchors, Only ASH Anchors, Neither Kid or ASH Anchors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GREEK, FAMILY FAVORITES, SIMPLY BETTER, KID, ADULT SNACKING FORMS, PROBIOTICS, ORGANIC, NON-DAIRY</t>
+    <t xml:space="preserve">KID ON LEFT, PROBIOTIC ON RIGHT; PROBIOTIC ON LEFT, KID ON RIGHT; KID ON BOTH, PROBIOTIC ON RIGHT; KID ON BOTH, PROBIOTIC ON LEFT; PRIOBIOTIC ON BOTH, KID ON RIGHT; PROBIOTIC ON BOTH, KID ON LEFT; BOTH ON LEFT; BOTH ON RIGHT; ONLY KID ON RIGHT; ONLY KID ON LEFT; ONLY KID BOTH; ONLY PROBIOTIC ON RIGHT; ONLY PROBIOTIC ON LEFT; ONLY PROBIOTIC BOTH; Neither Kid or ASH Anchors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREEK, FAMILY FAVORITES, SIMPLY BETTER, KID, ADULT SNACKING FORMS, PROBIOTICS, ORGANIC, NON-DAIRY, END OF CATEGORY</t>
   </si>
   <si>
     <t xml:space="preserve">Horizontal Block, Vertical Block, Not Blocked</t>
@@ -636,6 +650,63 @@
   </si>
   <si>
     <t xml:space="preserve">No Distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left_TTL VS PROBIOTICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left_TTL VS KID X ORG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right_TTL VS PROBIOTICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right_TTL VS KID X ORG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KID ON LEFT, PROBIOTIC ON RIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROBIOTIC ON LEFT, KID ON RIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KID ON BOTH, PROBIOTIC ON RIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KID ON BOTH, PROBIOTIC ON LEFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIOBIOTIC ON BOTH, KID ON RIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROBIOTIC ON BOTH, KID ON LEFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTH ON LEFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTH ON RIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONLY KID ON RIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONLY KID ON LEFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONLY KID BOTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONLY PROBIOTIC ON RIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONLY PROBIOTIC ON LEFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONLY PROBIOTIC BOTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neither Kid or ASH Anchors</t>
   </si>
 </sst>
 </file>
@@ -682,7 +753,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,6 +764,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFBE5D6"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -748,7 +825,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -762,6 +839,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -873,19 +954,19 @@
   </sheetPr>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="102.6"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4222222222222"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2888888888889"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3888888888889"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.6888888888889"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.7"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="116.318518518519"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6777777777778"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.662962962963"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.2962962962963"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.5592592592593"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.662962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1652,14 +1733,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7518518518519"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1074074074074"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6407407407407"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.362962962963"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.8555555555556"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.74074074074074"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.6703703703704"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.4592592592593"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.6962962962963"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.9111111111111"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.662962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,16 +1748,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>100</v>
@@ -1690,22 +1771,22 @@
         <v>52</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>148</v>
-      </c>
       <c r="E2" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1726,31 +1807,31 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="189.714814814815"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.8"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.76296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.2074074074074"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="215.388888888889"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.44814814814815"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.662962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1758,10 +1839,10 @@
         <v>103</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>12</v>
@@ -1771,11 +1852,11 @@
       <c r="A3" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>159</v>
+      <c r="B3" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>12</v>
@@ -1783,13 +1864,13 @@
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>161</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>160</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>12</v>
@@ -1797,13 +1878,13 @@
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="5" t="s">
         <v>163</v>
       </c>
+      <c r="B5" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="C5" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>12</v>
@@ -1813,11 +1894,11 @@
       <c r="A6" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>164</v>
+      <c r="B6" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>12</v>
@@ -1827,11 +1908,11 @@
       <c r="A7" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>165</v>
+      <c r="B7" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>12</v>
@@ -1841,11 +1922,11 @@
       <c r="A8" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>166</v>
+      <c r="B8" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>12</v>
@@ -1855,11 +1936,11 @@
       <c r="A9" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>167</v>
+      <c r="B9" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>12</v>
@@ -1869,11 +1950,11 @@
       <c r="A10" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>168</v>
+      <c r="B10" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>12</v>
@@ -1883,11 +1964,11 @@
       <c r="A11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>169</v>
+      <c r="B11" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>12</v>
@@ -1897,11 +1978,11 @@
       <c r="A12" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>170</v>
+      <c r="B12" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>12</v>
@@ -1909,13 +1990,13 @@
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="5" t="s">
         <v>172</v>
       </c>
+      <c r="B13" s="6" t="s">
+        <v>173</v>
+      </c>
       <c r="C13" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>12</v>
@@ -1923,13 +2004,13 @@
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>12</v>
@@ -1937,13 +2018,13 @@
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>12</v>
@@ -1951,13 +2032,13 @@
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>12</v>
@@ -1987,7 +2068,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.662962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1995,28 +2076,28 @@
         <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>182</v>
+      <c r="A2" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -2025,8 +2106,8 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>183</v>
+      <c r="A3" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -2039,8 +2120,8 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>184</v>
+      <c r="A4" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2052,8 +2133,8 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>185</v>
+      <c r="A5" s="9" t="s">
+        <v>186</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2066,8 +2147,8 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>186</v>
+      <c r="A6" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2076,6 +2157,214 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.8074074074074"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0148148148148"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6592592592593"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.0148148148148"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.62222222222222"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>206</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2101,11 +2390,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.6481481481481"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.6148148148148"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.1333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.2074074074074"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.337037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.2074074074074"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.662962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2160,14 +2449,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.6148148148148"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.7407407407407"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1703703703704"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.5555555555556"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.7407407407407"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.2592592592593"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.2074074074074"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.337037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0296296296296"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.8888888888889"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.662962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2240,12 +2529,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.6259259259259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8555555555556"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.9518518518519"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.462962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7962962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.8"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.662962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2318,16 +2607,16 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="102.6"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8555555555556"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.7111111111111"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="90.1555555555555"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.1185185185185"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.662962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2426,13 +2715,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D5" s="0" t="s">
@@ -2471,14 +2760,14 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="0" t="s">
@@ -2608,18 +2897,18 @@
   <dimension ref="A1:F65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="83.4925925925926"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1074074074074"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.7111111111111"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.29259259259259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.462962962963"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="67.3222222222222"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="94.7592592592592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.1185185185185"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.78148148148148"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="76.2407407407408"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.662962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2741,28 +3030,28 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E9" s="0" t="s">
@@ -2797,20 +3086,20 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="90.3518518518519"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1074074074074"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.7111111111111"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8555555555556"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.6962962962963"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.8555555555556"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.8111111111111"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.74074074074074"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="75.3555555555556"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2407407407407"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.5148148148148"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2444444444444"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.9481481481481"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.662962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3093,19 +3382,19 @@
   </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="68.6925925925926"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.662962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.4259259259259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.6148148148148"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.4259259259259"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="77.8074074074074"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8962962962963"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.2074074074074"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.337037037037"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8962962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.662962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3137,7 +3426,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>54</v>
       </c>
@@ -3157,16 +3446,16 @@
         <v>102</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>56</v>
       </c>
@@ -3174,7 +3463,7 @@
         <v>112</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>63</v>
@@ -3186,16 +3475,16 @@
         <v>102</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>57</v>
       </c>
@@ -3203,7 +3492,7 @@
         <v>112</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>63</v>
@@ -3215,13 +3504,13 @@
         <v>102</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3248,32 +3537,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.5407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4814814814815"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.7"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.4814814814815"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.9518518518519"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.7"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.4814814814815"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.6962962962963"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.7"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.4814814814815"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.3888888888889"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.7"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.4814814814815"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.7"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.4814814814815"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="14.7"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="69.5740740740741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.3444444444444"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1851851851852"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.5592592592593"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.3444444444444"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1666666666667"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.5"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.5592592592593"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.3444444444444"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.1666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.2444444444444"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.5592592592593"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.3444444444444"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.1666666666667"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.662962962963"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.5592592592593"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.3444444444444"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="21.1666666666667"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.1851851851852"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.5592592592593"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="17.3444444444444"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.1666666666667"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="20.1851851851852"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="16.5592592592593"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="11.662962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3281,76 +3570,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Z1" s="0" t="s">
         <v>62</v>
@@ -3366,7 +3655,7 @@
       <c r="C2" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -3375,7 +3664,7 @@
       <c r="F2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>88</v>
       </c>
       <c r="H2" s="0" t="s">
@@ -3387,7 +3676,7 @@
       <c r="J2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>88</v>
       </c>
       <c r="L2" s="0" t="s">
@@ -3397,24 +3686,24 @@
         <v>12</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="Q2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="S2" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="V2" s="0" t="s">
@@ -3423,7 +3712,7 @@
       <c r="W2" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
